--- a/results/tableA1_panel_police_report_only.xlsx
+++ b/results/tableA1_panel_police_report_only.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>eq_mix</t>
   </si>
@@ -43,46 +43,43 @@
     <t>['hour']</t>
   </si>
   <si>
-    <t>(0.21)</t>
-  </si>
-  <si>
-    <t>(0.05)</t>
+    <t>(0.52)</t>
+  </si>
+  <si>
+    <t>(0.41)</t>
   </si>
   <si>
     <t>['year', 'hour']</t>
   </si>
   <si>
+    <t>(0.33)</t>
+  </si>
+  <si>
+    <t>['year', 'weekend', 'hour']</t>
+  </si>
+  <si>
     <t>(0.37)</t>
   </si>
   <si>
-    <t>(0.35)</t>
-  </si>
-  <si>
-    <t>['year', 'weekend', 'hour']</t>
-  </si>
-  <si>
-    <t>(0.41)</t>
-  </si>
-  <si>
-    <t>(0.32)</t>
+    <t>(0.29)</t>
   </si>
   <si>
     <t>['year', 'state', 'hour']</t>
   </si>
   <si>
-    <t>(0.03)</t>
-  </si>
-  <si>
-    <t>(0.1)</t>
+    <t>(0.54)</t>
+  </si>
+  <si>
+    <t>(0.45)</t>
   </si>
   <si>
     <t>['year', 'state', 'weekend', 'hour']</t>
   </si>
   <si>
-    <t>(0.28)</t>
-  </si>
-  <si>
-    <t>(0.43)</t>
+    <t>(0.56)</t>
+  </si>
+  <si>
+    <t>(0.44)</t>
   </si>
 </sst>
 </file>
@@ -480,13 +477,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -523,16 +520,16 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -569,16 +566,16 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7">
